--- a/src/2.xlsx
+++ b/src/2.xlsx
@@ -424,34 +424,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.882253445110036</v>
+        <v>6.486198953339694</v>
       </c>
       <c r="C2">
-        <v>8.426506635163474</v>
+        <v>13.00219762748896</v>
       </c>
       <c r="D2">
-        <v>9.018662729773869</v>
+        <v>10.64397326455514</v>
       </c>
       <c r="E2">
-        <v>13.5966510459888</v>
+        <v>14.3990263349249</v>
       </c>
       <c r="F2">
-        <v>9.867007985069499</v>
+        <v>10.29658942219284</v>
       </c>
       <c r="G2">
-        <v>6.817940371649856</v>
+        <v>16.56469176340094</v>
       </c>
       <c r="H2">
-        <v>8.765719322391536</v>
+        <v>1.986951499972561</v>
       </c>
       <c r="I2">
-        <v>7.240924054168988</v>
+        <v>1.89031760558148</v>
       </c>
       <c r="J2">
-        <v>13.07517559952205</v>
+        <v>19.64341187729161</v>
       </c>
       <c r="K2">
-        <v>8.624919833230699</v>
+        <v>9.406911323185799</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -459,34 +459,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.82369431229191</v>
+        <v>5.75608204241055</v>
       </c>
       <c r="C3">
-        <v>8.636793216133563</v>
+        <v>12.86774260131163</v>
       </c>
       <c r="D3">
-        <v>8.948293561572203</v>
+        <v>9.567969491151</v>
       </c>
       <c r="E3">
-        <v>13.78810425047049</v>
+        <v>15.04992005875601</v>
       </c>
       <c r="F3">
-        <v>9.762315571350452</v>
+        <v>10.18591967345844</v>
       </c>
       <c r="G3">
-        <v>7.092283667328612</v>
+        <v>16.39080294853584</v>
       </c>
       <c r="H3">
-        <v>8.65336659341134</v>
+        <v>2.193857285427584</v>
       </c>
       <c r="I3">
-        <v>6.948633079367956</v>
+        <v>1.565312152969819</v>
       </c>
       <c r="J3">
-        <v>14.19145772064519</v>
+        <v>18.32810885762889</v>
       </c>
       <c r="K3">
-        <v>8.084854481468657</v>
+        <v>8.960058879774902</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -494,34 +494,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5.98828441829643</v>
+        <v>6.402719121797882</v>
       </c>
       <c r="C4">
-        <v>8.504467086719886</v>
+        <v>13.00926956969304</v>
       </c>
       <c r="D4">
-        <v>9.040965645432879</v>
+        <v>10.13990033612355</v>
       </c>
       <c r="E4">
-        <v>13.86692067876281</v>
+        <v>15.02306782532155</v>
       </c>
       <c r="F4">
-        <v>9.878750794853168</v>
+        <v>9.148061901257451</v>
       </c>
       <c r="G4">
-        <v>7.108161404763709</v>
+        <v>15.60484965042996</v>
       </c>
       <c r="H4">
-        <v>8.724372676481558</v>
+        <v>2.81349532004315</v>
       </c>
       <c r="I4">
-        <v>7.204076799595859</v>
+        <v>1.808319731306569</v>
       </c>
       <c r="J4">
-        <v>13.02235223228702</v>
+        <v>19.07781022009206</v>
       </c>
       <c r="K4">
-        <v>8.43616923545969</v>
+        <v>7.530661986292502</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -529,34 +529,34 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5.924210129297911</v>
+        <v>6.199183040384418</v>
       </c>
       <c r="C5">
-        <v>8.479066905519547</v>
+        <v>13.91875193966322</v>
       </c>
       <c r="D5">
-        <v>9.087248408792149</v>
+        <v>10.10896539055214</v>
       </c>
       <c r="E5">
-        <v>13.52811786431437</v>
+        <v>15.21036604541459</v>
       </c>
       <c r="F5">
-        <v>9.702048601480428</v>
+        <v>9.129764581247382</v>
       </c>
       <c r="G5">
-        <v>6.988333223243531</v>
+        <v>15.79135505284088</v>
       </c>
       <c r="H5">
-        <v>8.338888093009205</v>
+        <v>2.832975181540513</v>
       </c>
       <c r="I5">
-        <v>7.228833402652506</v>
+        <v>1.634124873985146</v>
       </c>
       <c r="J5">
-        <v>13.44557490882642</v>
+        <v>18.66378592879277</v>
       </c>
       <c r="K5">
-        <v>8.427467689215188</v>
+        <v>6.79047326111459</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -564,34 +564,34 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5.892056468283905</v>
+        <v>6.110144839627498</v>
       </c>
       <c r="C6">
-        <v>8.631466416647358</v>
+        <v>13.76890202347961</v>
       </c>
       <c r="D6">
-        <v>8.992242362799898</v>
+        <v>10.03344307289984</v>
       </c>
       <c r="E6">
-        <v>13.78992491363445</v>
+        <v>15.7419515700697</v>
       </c>
       <c r="F6">
-        <v>9.7179670589782</v>
+        <v>9.115526833120928</v>
       </c>
       <c r="G6">
-        <v>7.112620118567277</v>
+        <v>15.79224046877176</v>
       </c>
       <c r="H6">
-        <v>8.689854075068217</v>
+        <v>2.928318167871414</v>
       </c>
       <c r="I6">
-        <v>7.24642631422897</v>
+        <v>1.559256343350987</v>
       </c>
       <c r="J6">
-        <v>13.4135214311816</v>
+        <v>20.2086921270933</v>
       </c>
       <c r="K6">
-        <v>8.495123061098976</v>
+        <v>3.417564583936526</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -599,34 +599,34 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5.925085801610251</v>
+        <v>6.393227059243767</v>
       </c>
       <c r="C7">
-        <v>8.485038804095831</v>
+        <v>14.80126269602085</v>
       </c>
       <c r="D7">
-        <v>8.885609909583881</v>
+        <v>10.01711679393927</v>
       </c>
       <c r="E7">
-        <v>13.64921368079176</v>
+        <v>15.29742923476534</v>
       </c>
       <c r="F7">
-        <v>9.580156763701309</v>
+        <v>9.618525682427459</v>
       </c>
       <c r="G7">
-        <v>6.916200701710749</v>
+        <v>16.23568073007462</v>
       </c>
       <c r="H7">
-        <v>8.632900134209823</v>
+        <v>3.0082961610049</v>
       </c>
       <c r="I7">
-        <v>7.278064273984103</v>
+        <v>1.40179805974363</v>
       </c>
       <c r="J7">
-        <v>13.33662031245587</v>
+        <v>20.57675732314063</v>
       </c>
       <c r="K7">
-        <v>8.456113078608706</v>
+        <v>3.7361480880332</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -634,34 +634,34 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5.994205733497768</v>
+        <v>5.998281594150007</v>
       </c>
       <c r="C8">
-        <v>8.723681875262269</v>
+        <v>17.14079078098704</v>
       </c>
       <c r="D8">
-        <v>8.909785609008496</v>
+        <v>10.52179078293962</v>
       </c>
       <c r="E8">
-        <v>13.76828082529777</v>
+        <v>14.40555885347581</v>
       </c>
       <c r="F8">
-        <v>9.725377460625973</v>
+        <v>10.73350908710965</v>
       </c>
       <c r="G8">
-        <v>7.027127777322058</v>
+        <v>15.71451294702934</v>
       </c>
       <c r="H8">
-        <v>8.595224426782332</v>
+        <v>2.396095446268273</v>
       </c>
       <c r="I8">
-        <v>7.257145488511306</v>
+        <v>1.373230427460255</v>
       </c>
       <c r="J8">
-        <v>13.61203765641842</v>
+        <v>20.7259081067329</v>
       </c>
       <c r="K8">
-        <v>8.476939012231439</v>
+        <v>5.210634404302652</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -669,34 +669,34 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5.905626508569727</v>
+        <v>6.226283307266083</v>
       </c>
       <c r="C9">
-        <v>8.726098740024794</v>
+        <v>17.99782579932251</v>
       </c>
       <c r="D9">
-        <v>8.838532402228905</v>
+        <v>10.6763907843446</v>
       </c>
       <c r="E9">
-        <v>13.82587087732885</v>
+        <v>15.14349887329878</v>
       </c>
       <c r="F9">
-        <v>9.789805031795838</v>
+        <v>9.345659607618545</v>
       </c>
       <c r="G9">
-        <v>7.038660101551714</v>
+        <v>15.15568425530689</v>
       </c>
       <c r="H9">
-        <v>8.545712860985136</v>
+        <v>2.171650733259271</v>
       </c>
       <c r="I9">
-        <v>7.437494733509281</v>
+        <v>1.592629144601423</v>
       </c>
       <c r="J9">
-        <v>14.2782925346413</v>
+        <v>19.20055137009997</v>
       </c>
       <c r="K9">
-        <v>8.511328422914538</v>
+        <v>4.755822234540441</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -704,34 +704,34 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5.892746181072463</v>
+        <v>5.926145574180584</v>
       </c>
       <c r="C10">
-        <v>8.779392380248476</v>
+        <v>17.85934870398834</v>
       </c>
       <c r="D10">
-        <v>8.874883742953086</v>
+        <v>9.672082870101459</v>
       </c>
       <c r="E10">
-        <v>13.83101528020653</v>
+        <v>15.41702418016575</v>
       </c>
       <c r="F10">
-        <v>9.887696374945147</v>
+        <v>8.942749828355215</v>
       </c>
       <c r="G10">
-        <v>6.976744771691528</v>
+        <v>16.44046304573851</v>
       </c>
       <c r="H10">
-        <v>8.584568624262324</v>
+        <v>1.710205788147116</v>
       </c>
       <c r="I10">
-        <v>7.133636665294802</v>
+        <v>1.472082473771495</v>
       </c>
       <c r="J10">
-        <v>13.40698853706511</v>
+        <v>20.37949505421455</v>
       </c>
       <c r="K10">
-        <v>8.455156275324546</v>
+        <v>3.433194464855897</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -739,34 +739,34 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5.880929909962134</v>
+        <v>5.701717880514875</v>
       </c>
       <c r="C11">
-        <v>8.687603355846873</v>
+        <v>18.542233053322</v>
       </c>
       <c r="D11">
-        <v>8.893159199516504</v>
+        <v>8.78704166890609</v>
       </c>
       <c r="E11">
-        <v>13.78793896651681</v>
+        <v>13.90210160083335</v>
       </c>
       <c r="F11">
-        <v>9.73018864305751</v>
+        <v>10.09565538473007</v>
       </c>
       <c r="G11">
-        <v>7.070738897948588</v>
+        <v>15.09800662369431</v>
       </c>
       <c r="H11">
-        <v>8.800242944374931</v>
+        <v>1.738842096075591</v>
       </c>
       <c r="I11">
-        <v>6.480626848603335</v>
+        <v>1.851251906089308</v>
       </c>
       <c r="J11">
-        <v>13.39754916352642</v>
+        <v>21.60984092734884</v>
       </c>
       <c r="K11">
-        <v>8.466241517962905</v>
+        <v>2.845471967933329</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -774,34 +774,34 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5.872365672033757</v>
+        <v>5.920934667547142</v>
       </c>
       <c r="C12">
-        <v>8.719898173991602</v>
+        <v>18.88240710580491</v>
       </c>
       <c r="D12">
-        <v>8.920368237104633</v>
+        <v>8.946606595322992</v>
       </c>
       <c r="E12">
-        <v>13.79109354778955</v>
+        <v>14.83710048986098</v>
       </c>
       <c r="F12">
-        <v>9.764499684423537</v>
+        <v>10.45752558790924</v>
       </c>
       <c r="G12">
-        <v>7.150151513064817</v>
+        <v>16.41648889116594</v>
       </c>
       <c r="H12">
-        <v>9.04143094101933</v>
+        <v>1.541551010163053</v>
       </c>
       <c r="I12">
-        <v>7.030186918577439</v>
+        <v>3.301631324154769</v>
       </c>
       <c r="J12">
-        <v>13.37201291964566</v>
+        <v>22.5687502529831</v>
       </c>
       <c r="K12">
-        <v>8.363719327062505</v>
+        <v>2.731902258228494</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -809,34 +809,34 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5.933649336116332</v>
+        <v>5.865669863642989</v>
       </c>
       <c r="C13">
-        <v>8.616513676402384</v>
+        <v>20.81192567509103</v>
       </c>
       <c r="D13">
-        <v>8.980790065083246</v>
+        <v>8.776213452030676</v>
       </c>
       <c r="E13">
-        <v>13.74395188793354</v>
+        <v>13.49847326912412</v>
       </c>
       <c r="F13">
-        <v>9.640756892859271</v>
+        <v>10.26947855717887</v>
       </c>
       <c r="G13">
-        <v>6.893254940238525</v>
+        <v>16.45692196047122</v>
       </c>
       <c r="H13">
-        <v>8.808219476334704</v>
+        <v>1.318124347140113</v>
       </c>
       <c r="I13">
-        <v>7.308165004246623</v>
+        <v>3.670132572175031</v>
       </c>
       <c r="J13">
-        <v>12.47190683854969</v>
+        <v>22.99795550392248</v>
       </c>
       <c r="K13">
-        <v>8.492873557445725</v>
+        <v>2.308117733017377</v>
       </c>
     </row>
   </sheetData>
